--- a/Standardized 3.0/v3.0_tags_descriptions_restrictions.xlsx
+++ b/Standardized 3.0/v3.0_tags_descriptions_restrictions.xlsx
@@ -1,32 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kyle\OneDrive - Dairyland Laboratories, Inc\Standardized_XML_3.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kyle\Documents\GitHub\Standardized_XML\Standardized 3.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{2C2CD4E9-B600-4B6D-9602-F60E24B3BA50}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{45EE3C7C-A98C-4A9C-81DC-5ED32086ED5C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C93E45B-BAE5-49B4-8284-E4615918CE84}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11930" xr2:uid="{04A57B8A-4D04-463B-AB65-1E9361AF816D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11930" activeTab="1" xr2:uid="{04A57B8A-4D04-463B-AB65-1E9361AF816D}"/>
   </bookViews>
   <sheets>
     <sheet name="Element definitions" sheetId="8" r:id="rId1"/>
     <sheet name="Constituent names" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="402">
   <si>
     <t>Standardized XML 3.0 fields</t>
   </si>
@@ -1148,6 +1153,90 @@
   </si>
   <si>
     <t>Sample, Ref Id from Customer</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>TDN_ADF</t>
+  </si>
+  <si>
+    <t>NEL_ADF</t>
+  </si>
+  <si>
+    <t>NEG_ADF</t>
+  </si>
+  <si>
+    <t>NEM_ADF</t>
+  </si>
+  <si>
+    <t>Mcal/lb</t>
+  </si>
+  <si>
+    <t>TDN_OARDC</t>
+  </si>
+  <si>
+    <t>NEL_OARDC</t>
+  </si>
+  <si>
+    <t>NEG_OARDC</t>
+  </si>
+  <si>
+    <t>NEM_OARDC</t>
+  </si>
+  <si>
+    <t>TDN_NRC01</t>
+  </si>
+  <si>
+    <t>TDN_Milk06</t>
+  </si>
+  <si>
+    <t>NEL_Milk06</t>
+  </si>
+  <si>
+    <t>NEG_Milk06</t>
+  </si>
+  <si>
+    <t>NEM_Milk06</t>
+  </si>
+  <si>
+    <t>TDN_Milk13</t>
+  </si>
+  <si>
+    <t>NEL_Milk13</t>
+  </si>
+  <si>
+    <t>NEG_Milk13</t>
+  </si>
+  <si>
+    <t>NEM_Milk13</t>
+  </si>
+  <si>
+    <t>TDN_Milk06p</t>
+  </si>
+  <si>
+    <t>NEL_Milk06p</t>
+  </si>
+  <si>
+    <t>NEG_Milk06p</t>
+  </si>
+  <si>
+    <t>NEM_Milk06p</t>
+  </si>
+  <si>
+    <t>lb/ton</t>
+  </si>
+  <si>
+    <t>milk_per_ton_Milk06</t>
+  </si>
+  <si>
+    <t>milk_per_ton_Milk06p</t>
+  </si>
+  <si>
+    <t>milk_per_ton_Milk13</t>
   </si>
 </sst>
 </file>
@@ -1513,8 +1602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7919E2F-030E-48A3-A603-7F5FFC738585}">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2204,12 +2293,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBDA84FF-6C58-42D5-BBA3-244AB08B7B5C}">
-  <dimension ref="A1:I210"/>
+  <dimension ref="A1:I238"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1240" topLeftCell="A52" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1260" topLeftCell="A16" activePane="bottomLeft"/>
       <selection activeCell="E1" sqref="E1:G1048576"/>
-      <selection pane="bottomLeft" activeCell="C65" sqref="C65"/>
+      <selection pane="bottomLeft" activeCell="B239" sqref="B239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5381,6 +5470,233 @@
       </c>
       <c r="D210" s="3"/>
     </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A211" t="s">
+        <v>374</v>
+      </c>
+      <c r="B211" t="s">
+        <v>374</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B212" t="s">
+        <v>376</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B213" t="s">
+        <v>377</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B214" t="s">
+        <v>378</v>
+      </c>
+      <c r="C214" s="3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B215" t="s">
+        <v>379</v>
+      </c>
+      <c r="C215" s="3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B216" t="s">
+        <v>381</v>
+      </c>
+      <c r="C216" s="3" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B217" t="s">
+        <v>382</v>
+      </c>
+      <c r="C217" s="3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B218" t="s">
+        <v>383</v>
+      </c>
+      <c r="C218" s="3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B219" t="s">
+        <v>384</v>
+      </c>
+      <c r="C219" s="3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B220" t="s">
+        <v>385</v>
+      </c>
+      <c r="C220" s="3" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B221" t="s">
+        <v>238</v>
+      </c>
+      <c r="C221" s="3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B222" t="s">
+        <v>240</v>
+      </c>
+      <c r="C222" s="3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B223" t="s">
+        <v>239</v>
+      </c>
+      <c r="C223" s="3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B224" t="s">
+        <v>386</v>
+      </c>
+      <c r="C224" s="3" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="225" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B225" t="s">
+        <v>387</v>
+      </c>
+      <c r="C225" s="3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="226" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B226" t="s">
+        <v>388</v>
+      </c>
+      <c r="C226" s="3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="227" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B227" t="s">
+        <v>389</v>
+      </c>
+      <c r="C227" s="3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="228" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B228" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="C228" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="229" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B229" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="C229" s="3" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="230" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B230" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="C230" s="3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="231" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B231" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="C231" s="3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="232" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B232" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="C232" s="3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="233" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B233" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="C233" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="234" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B234" t="s">
+        <v>390</v>
+      </c>
+      <c r="C234" s="3" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="235" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B235" t="s">
+        <v>391</v>
+      </c>
+      <c r="C235" s="3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="236" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B236" t="s">
+        <v>392</v>
+      </c>
+      <c r="C236" s="3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="237" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B237" t="s">
+        <v>393</v>
+      </c>
+      <c r="C237" s="3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="238" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B238" t="s">
+        <v>401</v>
+      </c>
+      <c r="C238" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H49:H50"/>
